--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tgm2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tgm2-Itgb1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>79.61246300000001</v>
+        <v>45.89896166666667</v>
       </c>
       <c r="H2">
-        <v>238.837389</v>
+        <v>137.696885</v>
       </c>
       <c r="I2">
-        <v>0.6728436998494041</v>
+        <v>0.5698328702801992</v>
       </c>
       <c r="J2">
-        <v>0.6728436998494041</v>
+        <v>0.5698328702801992</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N2">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O2">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P2">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q2">
-        <v>7877.392403421213</v>
+        <v>7716.066520562619</v>
       </c>
       <c r="R2">
-        <v>70896.53163079091</v>
+        <v>69444.59868506357</v>
       </c>
       <c r="S2">
-        <v>0.1411632604151301</v>
+        <v>0.1700485141533917</v>
       </c>
       <c r="T2">
-        <v>0.1411632604151301</v>
+        <v>0.1700485141533917</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>79.61246300000001</v>
+        <v>45.89896166666667</v>
       </c>
       <c r="H3">
-        <v>238.837389</v>
+        <v>137.696885</v>
       </c>
       <c r="I3">
-        <v>0.6728436998494041</v>
+        <v>0.5698328702801992</v>
       </c>
       <c r="J3">
-        <v>0.6728436998494041</v>
+        <v>0.5698328702801992</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>489.018707</v>
       </c>
       <c r="O3">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P3">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q3">
-        <v>12977.32790578178</v>
+        <v>7481.816962291967</v>
       </c>
       <c r="R3">
-        <v>116795.951152036</v>
+        <v>67336.3526606277</v>
       </c>
       <c r="S3">
-        <v>0.2325543561675042</v>
+        <v>0.1648860665230013</v>
       </c>
       <c r="T3">
-        <v>0.2325543561675043</v>
+        <v>0.1648860665230013</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>79.61246300000001</v>
+        <v>45.89896166666667</v>
       </c>
       <c r="H4">
-        <v>238.837389</v>
+        <v>137.696885</v>
       </c>
       <c r="I4">
-        <v>0.6728436998494041</v>
+        <v>0.5698328702801992</v>
       </c>
       <c r="J4">
-        <v>0.6728436998494041</v>
+        <v>0.5698328702801992</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N4">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O4">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P4">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q4">
-        <v>11485.91268653152</v>
+        <v>7618.930670384684</v>
       </c>
       <c r="R4">
-        <v>103373.2141787837</v>
+        <v>68570.37603346216</v>
       </c>
       <c r="S4">
-        <v>0.2058281218757256</v>
+        <v>0.1679078111216376</v>
       </c>
       <c r="T4">
-        <v>0.2058281218757256</v>
+        <v>0.1679078111216376</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>79.61246300000001</v>
+        <v>45.89896166666667</v>
       </c>
       <c r="H5">
-        <v>238.837389</v>
+        <v>137.696885</v>
       </c>
       <c r="I5">
-        <v>0.6728436998494041</v>
+        <v>0.5698328702801992</v>
       </c>
       <c r="J5">
-        <v>0.6728436998494041</v>
+        <v>0.5698328702801992</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N5">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q5">
-        <v>5206.345122344055</v>
+        <v>3039.738340474184</v>
       </c>
       <c r="R5">
-        <v>46857.10610109649</v>
+        <v>27357.64506426766</v>
       </c>
       <c r="S5">
-        <v>0.09329796139104408</v>
+        <v>0.0669904784821686</v>
       </c>
       <c r="T5">
-        <v>0.0932979613910441</v>
+        <v>0.0669904784821686</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>11.445176</v>
       </c>
       <c r="I6">
-        <v>0.03224291890608301</v>
+        <v>0.04736372570041834</v>
       </c>
       <c r="J6">
-        <v>0.03224291890608301</v>
+        <v>0.04736372570041834</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N6">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O6">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P6">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q6">
-        <v>377.4875569344747</v>
+        <v>641.3488537198702</v>
       </c>
       <c r="R6">
-        <v>3397.388012410272</v>
+        <v>5772.139683478832</v>
       </c>
       <c r="S6">
-        <v>0.006764595639525255</v>
+        <v>0.01413419899095073</v>
       </c>
       <c r="T6">
-        <v>0.006764595639525256</v>
+        <v>0.01413419899095073</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>11.445176</v>
       </c>
       <c r="I7">
-        <v>0.03224291890608301</v>
+        <v>0.04736372570041834</v>
       </c>
       <c r="J7">
-        <v>0.03224291890608301</v>
+        <v>0.04736372570041834</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>489.018707</v>
       </c>
       <c r="O7">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P7">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q7">
         <v>621.8783521008259</v>
@@ -883,10 +883,10 @@
         <v>5596.905168907432</v>
       </c>
       <c r="S7">
-        <v>0.01114409074327877</v>
+        <v>0.01370510343282971</v>
       </c>
       <c r="T7">
-        <v>0.01114409074327877</v>
+        <v>0.01370510343282971</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>11.445176</v>
       </c>
       <c r="I8">
-        <v>0.03224291890608301</v>
+        <v>0.04736372570041834</v>
       </c>
       <c r="J8">
-        <v>0.03224291890608301</v>
+        <v>0.04736372570041834</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N8">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O8">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P8">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q8">
-        <v>550.4091832874044</v>
+        <v>633.2750552370933</v>
       </c>
       <c r="R8">
-        <v>4953.68264958664</v>
+        <v>5699.47549713384</v>
       </c>
       <c r="S8">
-        <v>0.00986335971298501</v>
+        <v>0.01395626669450002</v>
       </c>
       <c r="T8">
-        <v>0.009863359712985012</v>
+        <v>0.01395626669450002</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>11.445176</v>
       </c>
       <c r="I9">
-        <v>0.03224291890608301</v>
+        <v>0.04736372570041834</v>
       </c>
       <c r="J9">
-        <v>0.03224291890608301</v>
+        <v>0.04736372570041834</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N9">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q9">
-        <v>249.4899835049245</v>
+        <v>252.6588767834143</v>
       </c>
       <c r="R9">
-        <v>2245.40985154432</v>
+        <v>2273.929891050728</v>
       </c>
       <c r="S9">
-        <v>0.004470872810293971</v>
+        <v>0.005568156582137878</v>
       </c>
       <c r="T9">
-        <v>0.004470872810293972</v>
+        <v>0.005568156582137878</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.441711333333334</v>
+        <v>4.651706333333334</v>
       </c>
       <c r="H10">
-        <v>13.325134</v>
+        <v>13.955119</v>
       </c>
       <c r="I10">
-        <v>0.03753906580158222</v>
+        <v>0.05775065655894644</v>
       </c>
       <c r="J10">
-        <v>0.03753906580158222</v>
+        <v>0.05775065655894644</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N10">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O10">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P10">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q10">
-        <v>439.4927853870054</v>
+        <v>781.9975485020399</v>
       </c>
       <c r="R10">
-        <v>3955.435068483048</v>
+        <v>7037.977936518359</v>
       </c>
       <c r="S10">
-        <v>0.007875732391750876</v>
+        <v>0.01723384846929373</v>
       </c>
       <c r="T10">
-        <v>0.007875732391750878</v>
+        <v>0.01723384846929374</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.441711333333334</v>
+        <v>4.651706333333334</v>
       </c>
       <c r="H11">
-        <v>13.325134</v>
+        <v>13.955119</v>
       </c>
       <c r="I11">
-        <v>0.03753906580158222</v>
+        <v>0.05775065655894644</v>
       </c>
       <c r="J11">
-        <v>0.03753906580158222</v>
+        <v>0.05775065655894644</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>489.018707</v>
       </c>
       <c r="O11">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P11">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q11">
-        <v>724.0266443646377</v>
+        <v>758.2571388234594</v>
       </c>
       <c r="R11">
-        <v>6516.239799281739</v>
+        <v>6824.314249411133</v>
       </c>
       <c r="S11">
-        <v>0.01297459317902575</v>
+        <v>0.01671065165904371</v>
       </c>
       <c r="T11">
-        <v>0.01297459317902575</v>
+        <v>0.01671065165904371</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.441711333333334</v>
+        <v>4.651706333333334</v>
       </c>
       <c r="H12">
-        <v>13.325134</v>
+        <v>13.955119</v>
       </c>
       <c r="I12">
-        <v>0.03753906580158222</v>
+        <v>0.05775065655894644</v>
       </c>
       <c r="J12">
-        <v>0.03753906580158222</v>
+        <v>0.05775065655894644</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N12">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O12">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P12">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q12">
-        <v>640.818116046029</v>
+        <v>772.1531547933567</v>
       </c>
       <c r="R12">
-        <v>5767.363044414261</v>
+        <v>6949.378393140211</v>
       </c>
       <c r="S12">
-        <v>0.0114834922473649</v>
+        <v>0.01701689537299247</v>
       </c>
       <c r="T12">
-        <v>0.0114834922473649</v>
+        <v>0.01701689537299247</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.441711333333334</v>
+        <v>4.651706333333334</v>
       </c>
       <c r="H13">
-        <v>13.325134</v>
+        <v>13.955119</v>
       </c>
       <c r="I13">
-        <v>0.03753906580158222</v>
+        <v>0.05775065655894644</v>
       </c>
       <c r="J13">
-        <v>0.03753906580158222</v>
+        <v>0.05775065655894644</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N13">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q13">
-        <v>290.470628137209</v>
+        <v>308.0673195343509</v>
       </c>
       <c r="R13">
-        <v>2614.235653234881</v>
+        <v>2772.605875809158</v>
       </c>
       <c r="S13">
-        <v>0.005205247983440687</v>
+        <v>0.006789261057616534</v>
       </c>
       <c r="T13">
-        <v>0.005205247983440688</v>
+        <v>0.006789261057616534</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>30.45313966666667</v>
+        <v>26.182385</v>
       </c>
       <c r="H14">
-        <v>91.359419</v>
+        <v>78.547155</v>
       </c>
       <c r="I14">
-        <v>0.2573743154429307</v>
+        <v>0.325052747460436</v>
       </c>
       <c r="J14">
-        <v>0.2573743154429307</v>
+        <v>0.325052747460436</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N14">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O14">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P14">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q14">
-        <v>3013.238405531119</v>
+        <v>4401.516221524857</v>
       </c>
       <c r="R14">
-        <v>27119.14564978007</v>
+        <v>39613.64599372371</v>
       </c>
       <c r="S14">
-        <v>0.05399738085259333</v>
+        <v>0.09700166418961582</v>
       </c>
       <c r="T14">
-        <v>0.05399738085259333</v>
+        <v>0.09700166418961584</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>30.45313966666667</v>
+        <v>26.182385</v>
       </c>
       <c r="H15">
-        <v>91.359419</v>
+        <v>78.547155</v>
       </c>
       <c r="I15">
-        <v>0.2573743154429307</v>
+        <v>0.325052747460436</v>
       </c>
       <c r="J15">
-        <v>0.2573743154429307</v>
+        <v>0.325052747460436</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>489.018707</v>
       </c>
       <c r="O15">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P15">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q15">
-        <v>4964.051661294582</v>
+        <v>4267.892019625398</v>
       </c>
       <c r="R15">
-        <v>44676.46495165124</v>
+        <v>38411.02817662858</v>
       </c>
       <c r="S15">
-        <v>0.08895605061811428</v>
+        <v>0.09405682216066469</v>
       </c>
       <c r="T15">
-        <v>0.08895605061811429</v>
+        <v>0.09405682216066469</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>30.45313966666667</v>
+        <v>26.182385</v>
       </c>
       <c r="H16">
-        <v>91.359419</v>
+        <v>78.547155</v>
       </c>
       <c r="I16">
-        <v>0.2573743154429307</v>
+        <v>0.325052747460436</v>
       </c>
       <c r="J16">
-        <v>0.2573743154429307</v>
+        <v>0.325052747460436</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N16">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O16">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P16">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q16">
-        <v>4393.559626990601</v>
+        <v>4346.10650996905</v>
       </c>
       <c r="R16">
-        <v>39542.03664291542</v>
+        <v>39114.95858972145</v>
       </c>
       <c r="S16">
-        <v>0.07873280522434231</v>
+        <v>0.09578053175191285</v>
       </c>
       <c r="T16">
-        <v>0.07873280522434233</v>
+        <v>0.09578053175191285</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>30.45313966666667</v>
+        <v>26.182385</v>
       </c>
       <c r="H17">
-        <v>91.359419</v>
+        <v>78.547155</v>
       </c>
       <c r="I17">
-        <v>0.2573743154429307</v>
+        <v>0.325052747460436</v>
       </c>
       <c r="J17">
-        <v>0.2573743154429307</v>
+        <v>0.325052747460436</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N17">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O17">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P17">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q17">
-        <v>1991.516769976232</v>
+        <v>1733.973855608052</v>
       </c>
       <c r="R17">
-        <v>17923.65092978608</v>
+        <v>15605.76470047247</v>
       </c>
       <c r="S17">
-        <v>0.03568807874788071</v>
+        <v>0.03821372935824265</v>
       </c>
       <c r="T17">
-        <v>0.03568807874788072</v>
+        <v>0.03821372935824265</v>
       </c>
     </row>
   </sheetData>
